--- a/IPA-2018-Zeitplan.xlsx
+++ b/IPA-2018-Zeitplan.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -160,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -297,17 +300,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -362,15 +354,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -808,246 +791,303 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1314,202 +1354,202 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BC55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BB18" sqref="BB18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="5" width="4.28515625" customWidth="1"/>
-    <col min="6" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" customWidth="1"/>
-    <col min="14" max="51" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="5" width="4.33203125" customWidth="1"/>
+    <col min="6" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="14" max="51" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="60" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="60" t="s">
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="60" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="60" t="s">
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="60" t="s">
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="60" t="s">
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="60" t="s">
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="60" t="s">
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="60" t="s">
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="60" t="s">
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="60" t="s">
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="60" t="s">
+      <c r="AS1" s="95"/>
+      <c r="AT1" s="95"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63" t="s">
+      <c r="AW1" s="95"/>
+      <c r="AX1" s="95"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="97" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="66">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A2" s="103"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="84">
         <v>43164</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="66">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="84">
         <v>43165</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="66">
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="84">
         <v>43166</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="66">
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="84">
         <v>43168</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="66">
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="84">
         <v>43171</v>
       </c>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="66">
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="84">
         <v>43172</v>
       </c>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="66">
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="84">
         <v>43173</v>
       </c>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="66">
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="84">
         <v>43175</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="66">
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="84">
         <v>43178</v>
       </c>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="66">
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="84">
         <v>43179</v>
       </c>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="66">
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="84">
         <v>43180</v>
       </c>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="66">
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="84">
         <v>43182</v>
       </c>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="64"/>
-    </row>
-    <row r="3" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="86"/>
+      <c r="AZ2" s="98"/>
+    </row>
+    <row r="3" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="104"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1660,13 +1700,13 @@
       <c r="AY3" s="5">
         <v>17</v>
       </c>
-      <c r="AZ3" s="65"/>
-    </row>
-    <row r="4" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="AZ3" s="99"/>
+    </row>
+    <row r="4" spans="1:55" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="67">
         <v>30</v>
       </c>
       <c r="C4" s="69">
@@ -1680,10 +1720,10 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="11"/>
       <c r="O4" s="9"/>
       <c r="P4" s="10"/>
@@ -1698,10 +1738,10 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="9"/>
-      <c r="AB4" s="73" t="s">
+      <c r="AB4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="79"/>
+      <c r="AC4" s="87"/>
       <c r="AD4" s="11"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
@@ -1716,27 +1756,27 @@
       <c r="AO4" s="8"/>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="9"/>
-      <c r="AR4" s="73" t="s">
+      <c r="AR4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="AS4" s="74"/>
+      <c r="AS4" s="78"/>
       <c r="AT4" s="11"/>
       <c r="AU4" s="9"/>
       <c r="AV4" s="10"/>
       <c r="AW4" s="8"/>
-      <c r="AX4" s="73" t="s">
+      <c r="AX4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="104"/>
+      <c r="AY4" s="78"/>
+      <c r="AZ4" s="83"/>
       <c r="BB4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="BC4" s="13"/>
     </row>
-    <row r="5" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
+    <row r="5" spans="1:55" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="105"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="69"/>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
@@ -1746,8 +1786,8 @@
       <c r="I5" s="15"/>
       <c r="J5" s="50"/>
       <c r="K5" s="52"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="76"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="80"/>
       <c r="N5" s="55"/>
       <c r="O5" s="52"/>
       <c r="P5" s="56"/>
@@ -1762,8 +1802,8 @@
       <c r="Y5" s="50"/>
       <c r="Z5" s="50"/>
       <c r="AA5" s="52"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="81"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="89"/>
       <c r="AD5" s="55"/>
       <c r="AE5" s="52"/>
       <c r="AF5" s="49"/>
@@ -1778,25 +1818,25 @@
       <c r="AO5" s="15"/>
       <c r="AP5" s="50"/>
       <c r="AQ5" s="52"/>
-      <c r="AR5" s="75"/>
-      <c r="AS5" s="76"/>
+      <c r="AR5" s="79"/>
+      <c r="AS5" s="80"/>
       <c r="AT5" s="55"/>
       <c r="AU5" s="52"/>
       <c r="AV5" s="49"/>
       <c r="AW5" s="50"/>
-      <c r="AX5" s="75"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="100"/>
+      <c r="AX5" s="79"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="71"/>
       <c r="BB5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="BC5" s="18"/>
     </row>
-    <row r="6" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+    <row r="6" spans="1:55" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="67">
         <v>2</v>
       </c>
       <c r="C6" s="69">
@@ -1810,8 +1850,8 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="76"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="80"/>
       <c r="N6" s="17"/>
       <c r="O6" s="16"/>
       <c r="P6" s="14"/>
@@ -1826,8 +1866,8 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="16"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="81"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="89"/>
       <c r="AD6" s="17"/>
       <c r="AE6" s="16"/>
       <c r="AF6" s="14"/>
@@ -1842,23 +1882,23 @@
       <c r="AO6" s="15"/>
       <c r="AP6" s="15"/>
       <c r="AQ6" s="16"/>
-      <c r="AR6" s="75"/>
-      <c r="AS6" s="76"/>
+      <c r="AR6" s="79"/>
+      <c r="AS6" s="80"/>
       <c r="AT6" s="17"/>
       <c r="AU6" s="16"/>
       <c r="AV6" s="14"/>
       <c r="AW6" s="15"/>
-      <c r="AX6" s="75"/>
-      <c r="AY6" s="76"/>
-      <c r="AZ6" s="100"/>
+      <c r="AX6" s="79"/>
+      <c r="AY6" s="80"/>
+      <c r="AZ6" s="71"/>
       <c r="BB6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="BC6" s="21"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="72"/>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A7" s="105"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="69"/>
       <c r="D7" s="49"/>
       <c r="E7" s="15"/>
@@ -1868,8 +1908,8 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="80"/>
       <c r="N7" s="17"/>
       <c r="O7" s="16"/>
       <c r="P7" s="14"/>
@@ -1884,8 +1924,8 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="16"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="81"/>
+      <c r="AB7" s="88"/>
+      <c r="AC7" s="89"/>
       <c r="AD7" s="17"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="14"/>
@@ -1900,21 +1940,21 @@
       <c r="AO7" s="15"/>
       <c r="AP7" s="15"/>
       <c r="AQ7" s="16"/>
-      <c r="AR7" s="75"/>
-      <c r="AS7" s="76"/>
+      <c r="AR7" s="79"/>
+      <c r="AS7" s="80"/>
       <c r="AT7" s="17"/>
       <c r="AU7" s="16"/>
       <c r="AV7" s="14"/>
       <c r="AW7" s="15"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="76"/>
-      <c r="AZ7" s="100"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="AX7" s="79"/>
+      <c r="AY7" s="80"/>
+      <c r="AZ7" s="71"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A8" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="67">
         <v>2</v>
       </c>
       <c r="C8" s="69">
@@ -1928,8 +1968,8 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="80"/>
       <c r="N8" s="17"/>
       <c r="O8" s="16"/>
       <c r="P8" s="14"/>
@@ -1944,8 +1984,8 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="16"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="81"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="89"/>
       <c r="AD8" s="17"/>
       <c r="AE8" s="16"/>
       <c r="AF8" s="14"/>
@@ -1960,19 +2000,19 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="16"/>
-      <c r="AR8" s="75"/>
-      <c r="AS8" s="76"/>
+      <c r="AR8" s="79"/>
+      <c r="AS8" s="80"/>
       <c r="AT8" s="17"/>
       <c r="AU8" s="16"/>
       <c r="AV8" s="14"/>
       <c r="AW8" s="15"/>
-      <c r="AX8" s="75"/>
-      <c r="AY8" s="76"/>
-      <c r="AZ8" s="100"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="72"/>
+      <c r="AX8" s="79"/>
+      <c r="AY8" s="80"/>
+      <c r="AZ8" s="71"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A9" s="105"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="69"/>
       <c r="D9" s="14"/>
       <c r="E9" s="50"/>
@@ -1982,8 +2022,8 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
       <c r="P9" s="14"/>
@@ -1998,8 +2038,8 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="16"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="81"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="89"/>
       <c r="AD9" s="17"/>
       <c r="AE9" s="16"/>
       <c r="AF9" s="14"/>
@@ -2014,21 +2054,21 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="16"/>
-      <c r="AR9" s="75"/>
-      <c r="AS9" s="76"/>
+      <c r="AR9" s="79"/>
+      <c r="AS9" s="80"/>
       <c r="AT9" s="17"/>
       <c r="AU9" s="16"/>
       <c r="AV9" s="14"/>
       <c r="AW9" s="15"/>
-      <c r="AX9" s="75"/>
-      <c r="AY9" s="76"/>
-      <c r="AZ9" s="100"/>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+      <c r="AX9" s="79"/>
+      <c r="AY9" s="80"/>
+      <c r="AZ9" s="71"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A10" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="67">
         <v>1</v>
       </c>
       <c r="C10" s="69">
@@ -2042,8 +2082,8 @@
       <c r="I10" s="20"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="76"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="17"/>
       <c r="O10" s="16"/>
       <c r="P10" s="14"/>
@@ -2058,8 +2098,8 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="16"/>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="81"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="89"/>
       <c r="AD10" s="17"/>
       <c r="AE10" s="16"/>
       <c r="AF10" s="14"/>
@@ -2074,20 +2114,20 @@
       <c r="AO10" s="20"/>
       <c r="AP10" s="15"/>
       <c r="AQ10" s="16"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="76"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="80"/>
       <c r="AT10" s="17"/>
       <c r="AU10" s="16"/>
       <c r="AV10" s="14"/>
       <c r="AW10" s="15"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="76"/>
-      <c r="AZ10" s="100"/>
-    </row>
-    <row r="11" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="80"/>
+      <c r="AZ10" s="71"/>
+    </row>
+    <row r="11" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="106"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -2096,8 +2136,8 @@
       <c r="I11" s="53"/>
       <c r="J11" s="24"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="76"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="26"/>
       <c r="O11" s="25"/>
       <c r="P11" s="23"/>
@@ -2112,8 +2152,8 @@
       <c r="Y11" s="24"/>
       <c r="Z11" s="24"/>
       <c r="AA11" s="25"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="81"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="89"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="23"/>
@@ -2128,24 +2168,24 @@
       <c r="AO11" s="53"/>
       <c r="AP11" s="24"/>
       <c r="AQ11" s="25"/>
-      <c r="AR11" s="75"/>
-      <c r="AS11" s="76"/>
+      <c r="AR11" s="79"/>
+      <c r="AS11" s="80"/>
       <c r="AT11" s="26"/>
       <c r="AU11" s="25"/>
       <c r="AV11" s="23"/>
       <c r="AW11" s="24"/>
-      <c r="AX11" s="75"/>
-      <c r="AY11" s="76"/>
-      <c r="AZ11" s="101"/>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="AX11" s="79"/>
+      <c r="AY11" s="80"/>
+      <c r="AZ11" s="72"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A12" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="96">
+      <c r="B12" s="61">
         <v>1.5</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="68">
         <v>1</v>
       </c>
       <c r="D12" s="6"/>
@@ -2156,8 +2196,8 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="27"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="28"/>
       <c r="O12" s="27"/>
       <c r="P12" s="6"/>
@@ -2172,8 +2212,8 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="27"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="81"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="89"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="27"/>
       <c r="AF12" s="6"/>
@@ -2188,21 +2228,21 @@
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="27"/>
-      <c r="AR12" s="75"/>
-      <c r="AS12" s="76"/>
+      <c r="AR12" s="79"/>
+      <c r="AS12" s="80"/>
       <c r="AT12" s="28"/>
       <c r="AU12" s="27"/>
       <c r="AV12" s="6"/>
       <c r="AW12" s="7"/>
-      <c r="AX12" s="75"/>
-      <c r="AY12" s="76"/>
-      <c r="AZ12" s="99" t="s">
+      <c r="AX12" s="79"/>
+      <c r="AY12" s="80"/>
+      <c r="AZ12" s="70" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="72"/>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A13" s="105"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="69"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
@@ -2212,8 +2252,8 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="76"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="17"/>
       <c r="O13" s="16"/>
       <c r="P13" s="14"/>
@@ -2228,8 +2268,8 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="16"/>
-      <c r="AB13" s="80"/>
-      <c r="AC13" s="81"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="89"/>
       <c r="AD13" s="17"/>
       <c r="AE13" s="16"/>
       <c r="AF13" s="14"/>
@@ -2244,21 +2284,21 @@
       <c r="AO13" s="15"/>
       <c r="AP13" s="15"/>
       <c r="AQ13" s="16"/>
-      <c r="AR13" s="75"/>
-      <c r="AS13" s="76"/>
+      <c r="AR13" s="79"/>
+      <c r="AS13" s="80"/>
       <c r="AT13" s="17"/>
       <c r="AU13" s="16"/>
       <c r="AV13" s="14"/>
       <c r="AW13" s="15"/>
-      <c r="AX13" s="75"/>
-      <c r="AY13" s="76"/>
-      <c r="AZ13" s="100"/>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+      <c r="AX13" s="79"/>
+      <c r="AY13" s="80"/>
+      <c r="AZ13" s="71"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A14" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="72">
+      <c r="B14" s="67">
         <v>1</v>
       </c>
       <c r="C14" s="69">
@@ -2272,8 +2312,8 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="76"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="17"/>
       <c r="O14" s="16"/>
       <c r="P14" s="14"/>
@@ -2288,8 +2328,8 @@
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="16"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="81"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="89"/>
       <c r="AD14" s="17"/>
       <c r="AE14" s="16"/>
       <c r="AF14" s="14"/>
@@ -2304,20 +2344,20 @@
       <c r="AO14" s="15"/>
       <c r="AP14" s="15"/>
       <c r="AQ14" s="16"/>
-      <c r="AR14" s="75"/>
-      <c r="AS14" s="76"/>
+      <c r="AR14" s="79"/>
+      <c r="AS14" s="80"/>
       <c r="AT14" s="17"/>
       <c r="AU14" s="16"/>
       <c r="AV14" s="14"/>
       <c r="AW14" s="15"/>
-      <c r="AX14" s="75"/>
-      <c r="AY14" s="76"/>
-      <c r="AZ14" s="100"/>
-    </row>
-    <row r="15" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
+      <c r="AX14" s="79"/>
+      <c r="AY14" s="80"/>
+      <c r="AZ14" s="71"/>
+    </row>
+    <row r="15" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="108"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
@@ -2326,8 +2366,8 @@
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="33"/>
       <c r="O15" s="32"/>
       <c r="P15" s="30"/>
@@ -2342,8 +2382,8 @@
       <c r="Y15" s="31"/>
       <c r="Z15" s="31"/>
       <c r="AA15" s="32"/>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="81"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="89"/>
       <c r="AD15" s="33"/>
       <c r="AE15" s="32"/>
       <c r="AF15" s="30"/>
@@ -2358,24 +2398,24 @@
       <c r="AO15" s="31"/>
       <c r="AP15" s="31"/>
       <c r="AQ15" s="32"/>
-      <c r="AR15" s="75"/>
-      <c r="AS15" s="76"/>
+      <c r="AR15" s="79"/>
+      <c r="AS15" s="80"/>
       <c r="AT15" s="33"/>
       <c r="AU15" s="32"/>
       <c r="AV15" s="30"/>
       <c r="AW15" s="31"/>
-      <c r="AX15" s="75"/>
-      <c r="AY15" s="76"/>
-      <c r="AZ15" s="101"/>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
+      <c r="AX15" s="79"/>
+      <c r="AY15" s="80"/>
+      <c r="AZ15" s="72"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A16" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="96">
+      <c r="B16" s="61">
         <v>1</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="68">
         <v>1</v>
       </c>
       <c r="D16" s="6"/>
@@ -2386,8 +2426,8 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="27"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="28"/>
       <c r="O16" s="27"/>
       <c r="P16" s="6"/>
@@ -2402,8 +2442,8 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="27"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="81"/>
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="89"/>
       <c r="AD16" s="28"/>
       <c r="AE16" s="27"/>
       <c r="AF16" s="6"/>
@@ -2418,21 +2458,21 @@
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
       <c r="AQ16" s="27"/>
-      <c r="AR16" s="75"/>
-      <c r="AS16" s="76"/>
+      <c r="AR16" s="79"/>
+      <c r="AS16" s="80"/>
       <c r="AT16" s="28"/>
       <c r="AU16" s="27"/>
       <c r="AV16" s="6"/>
       <c r="AW16" s="7"/>
-      <c r="AX16" s="75"/>
-      <c r="AY16" s="76"/>
-      <c r="AZ16" s="99" t="s">
+      <c r="AX16" s="79"/>
+      <c r="AY16" s="80"/>
+      <c r="AZ16" s="70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="72"/>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A17" s="105"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="69"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
@@ -2442,8 +2482,8 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="76"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="17"/>
       <c r="O17" s="16"/>
       <c r="P17" s="14"/>
@@ -2458,8 +2498,8 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="16"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="81"/>
+      <c r="AB17" s="88"/>
+      <c r="AC17" s="89"/>
       <c r="AD17" s="17"/>
       <c r="AE17" s="16"/>
       <c r="AF17" s="14"/>
@@ -2474,21 +2514,21 @@
       <c r="AO17" s="15"/>
       <c r="AP17" s="15"/>
       <c r="AQ17" s="16"/>
-      <c r="AR17" s="75"/>
-      <c r="AS17" s="76"/>
+      <c r="AR17" s="79"/>
+      <c r="AS17" s="80"/>
       <c r="AT17" s="17"/>
       <c r="AU17" s="16"/>
       <c r="AV17" s="14"/>
       <c r="AW17" s="15"/>
-      <c r="AX17" s="75"/>
-      <c r="AY17" s="76"/>
-      <c r="AZ17" s="100"/>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
+      <c r="AX17" s="79"/>
+      <c r="AY17" s="80"/>
+      <c r="AZ17" s="71"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A18" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="67">
         <v>2</v>
       </c>
       <c r="C18" s="69">
@@ -2502,8 +2542,8 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="76"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="17"/>
       <c r="O18" s="16"/>
       <c r="P18" s="14"/>
@@ -2518,8 +2558,8 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="16"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="81"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="89"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="16"/>
       <c r="AF18" s="14"/>
@@ -2534,19 +2574,19 @@
       <c r="AO18" s="15"/>
       <c r="AP18" s="15"/>
       <c r="AQ18" s="16"/>
-      <c r="AR18" s="75"/>
-      <c r="AS18" s="76"/>
+      <c r="AR18" s="79"/>
+      <c r="AS18" s="80"/>
       <c r="AT18" s="17"/>
       <c r="AU18" s="16"/>
       <c r="AV18" s="14"/>
       <c r="AW18" s="15"/>
-      <c r="AX18" s="75"/>
-      <c r="AY18" s="76"/>
-      <c r="AZ18" s="100"/>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="72"/>
+      <c r="AX18" s="79"/>
+      <c r="AY18" s="80"/>
+      <c r="AZ18" s="71"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A19" s="105"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="69"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
@@ -2556,8 +2596,8 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="76"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="17"/>
       <c r="O19" s="16"/>
       <c r="P19" s="14"/>
@@ -2572,8 +2612,8 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="16"/>
-      <c r="AB19" s="80"/>
-      <c r="AC19" s="81"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="89"/>
       <c r="AD19" s="17"/>
       <c r="AE19" s="16"/>
       <c r="AF19" s="14"/>
@@ -2588,21 +2628,21 @@
       <c r="AO19" s="15"/>
       <c r="AP19" s="15"/>
       <c r="AQ19" s="16"/>
-      <c r="AR19" s="75"/>
-      <c r="AS19" s="76"/>
+      <c r="AR19" s="79"/>
+      <c r="AS19" s="80"/>
       <c r="AT19" s="17"/>
       <c r="AU19" s="16"/>
       <c r="AV19" s="14"/>
       <c r="AW19" s="15"/>
-      <c r="AX19" s="75"/>
-      <c r="AY19" s="76"/>
-      <c r="AZ19" s="100"/>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="AX19" s="79"/>
+      <c r="AY19" s="80"/>
+      <c r="AZ19" s="71"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A20" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="72">
+      <c r="B20" s="67">
         <v>1.5</v>
       </c>
       <c r="C20" s="69">
@@ -2616,8 +2656,8 @@
       <c r="I20" s="20"/>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="76"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="17"/>
       <c r="O20" s="16"/>
       <c r="P20" s="14"/>
@@ -2632,8 +2672,8 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="16"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="81"/>
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="89"/>
       <c r="AD20" s="17"/>
       <c r="AE20" s="16"/>
       <c r="AF20" s="14"/>
@@ -2648,19 +2688,19 @@
       <c r="AO20" s="15"/>
       <c r="AP20" s="15"/>
       <c r="AQ20" s="16"/>
-      <c r="AR20" s="75"/>
-      <c r="AS20" s="76"/>
+      <c r="AR20" s="79"/>
+      <c r="AS20" s="80"/>
       <c r="AT20" s="17"/>
       <c r="AU20" s="16"/>
       <c r="AV20" s="14"/>
       <c r="AW20" s="15"/>
-      <c r="AX20" s="75"/>
-      <c r="AY20" s="76"/>
-      <c r="AZ20" s="100"/>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="72"/>
+      <c r="AX20" s="79"/>
+      <c r="AY20" s="80"/>
+      <c r="AZ20" s="71"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A21" s="105"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="69"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
@@ -2670,8 +2710,8 @@
       <c r="I21" s="50"/>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="76"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="17"/>
       <c r="O21" s="16"/>
       <c r="P21" s="14"/>
@@ -2686,8 +2726,8 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="16"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="81"/>
+      <c r="AB21" s="88"/>
+      <c r="AC21" s="89"/>
       <c r="AD21" s="17"/>
       <c r="AE21" s="16"/>
       <c r="AF21" s="14"/>
@@ -2702,21 +2742,21 @@
       <c r="AO21" s="15"/>
       <c r="AP21" s="15"/>
       <c r="AQ21" s="16"/>
-      <c r="AR21" s="75"/>
-      <c r="AS21" s="76"/>
+      <c r="AR21" s="79"/>
+      <c r="AS21" s="80"/>
       <c r="AT21" s="17"/>
       <c r="AU21" s="16"/>
       <c r="AV21" s="14"/>
       <c r="AW21" s="15"/>
-      <c r="AX21" s="75"/>
-      <c r="AY21" s="76"/>
-      <c r="AZ21" s="100"/>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="AX21" s="79"/>
+      <c r="AY21" s="80"/>
+      <c r="AZ21" s="71"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A22" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="72">
+      <c r="B22" s="67">
         <v>2</v>
       </c>
       <c r="C22" s="69">
@@ -2730,8 +2770,8 @@
       <c r="I22" s="15"/>
       <c r="J22" s="20"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="76"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
       <c r="N22" s="17"/>
       <c r="O22" s="16"/>
       <c r="P22" s="14"/>
@@ -2746,8 +2786,8 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="16"/>
-      <c r="AB22" s="80"/>
-      <c r="AC22" s="81"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="89"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="16"/>
       <c r="AF22" s="14"/>
@@ -2762,20 +2802,20 @@
       <c r="AO22" s="15"/>
       <c r="AP22" s="15"/>
       <c r="AQ22" s="16"/>
-      <c r="AR22" s="75"/>
-      <c r="AS22" s="76"/>
+      <c r="AR22" s="79"/>
+      <c r="AS22" s="80"/>
       <c r="AT22" s="17"/>
       <c r="AU22" s="16"/>
       <c r="AV22" s="14"/>
       <c r="AW22" s="15"/>
-      <c r="AX22" s="75"/>
-      <c r="AY22" s="76"/>
-      <c r="AZ22" s="100"/>
-    </row>
-    <row r="23" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="91"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
+      <c r="AX22" s="79"/>
+      <c r="AY22" s="80"/>
+      <c r="AZ22" s="71"/>
+    </row>
+    <row r="23" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="108"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="30"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
@@ -2784,8 +2824,8 @@
       <c r="I23" s="31"/>
       <c r="J23" s="54"/>
       <c r="K23" s="51"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="76"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="80"/>
       <c r="N23" s="33"/>
       <c r="O23" s="32"/>
       <c r="P23" s="30"/>
@@ -2800,8 +2840,8 @@
       <c r="Y23" s="31"/>
       <c r="Z23" s="31"/>
       <c r="AA23" s="32"/>
-      <c r="AB23" s="80"/>
-      <c r="AC23" s="81"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="89"/>
       <c r="AD23" s="33"/>
       <c r="AE23" s="32"/>
       <c r="AF23" s="30"/>
@@ -2816,24 +2856,24 @@
       <c r="AO23" s="31"/>
       <c r="AP23" s="31"/>
       <c r="AQ23" s="32"/>
-      <c r="AR23" s="75"/>
-      <c r="AS23" s="76"/>
+      <c r="AR23" s="79"/>
+      <c r="AS23" s="80"/>
       <c r="AT23" s="33"/>
       <c r="AU23" s="32"/>
       <c r="AV23" s="30"/>
       <c r="AW23" s="31"/>
-      <c r="AX23" s="75"/>
-      <c r="AY23" s="76"/>
-      <c r="AZ23" s="101"/>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="AX23" s="79"/>
+      <c r="AY23" s="80"/>
+      <c r="AZ23" s="72"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A24" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="96">
+      <c r="B24" s="61">
         <v>0.5</v>
       </c>
-      <c r="C24" s="97">
+      <c r="C24" s="68">
         <v>0.5</v>
       </c>
       <c r="D24" s="6"/>
@@ -2844,8 +2884,8 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="34"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="76"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="80"/>
       <c r="N24" s="28"/>
       <c r="O24" s="27"/>
       <c r="P24" s="6"/>
@@ -2860,8 +2900,8 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="27"/>
-      <c r="AB24" s="80"/>
-      <c r="AC24" s="81"/>
+      <c r="AB24" s="88"/>
+      <c r="AC24" s="89"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="27"/>
       <c r="AF24" s="6"/>
@@ -2876,22 +2916,22 @@
       <c r="AO24" s="7"/>
       <c r="AP24" s="7"/>
       <c r="AQ24" s="27"/>
-      <c r="AR24" s="75"/>
-      <c r="AS24" s="76"/>
+      <c r="AR24" s="79"/>
+      <c r="AS24" s="80"/>
       <c r="AT24" s="28"/>
       <c r="AU24" s="27"/>
       <c r="AV24" s="6"/>
       <c r="AW24" s="7"/>
-      <c r="AX24" s="75"/>
-      <c r="AY24" s="76"/>
-      <c r="AZ24" s="105" t="s">
+      <c r="AX24" s="79"/>
+      <c r="AY24" s="80"/>
+      <c r="AZ24" s="65" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="95"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
+    <row r="25" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="108"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="30"/>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
@@ -2900,8 +2940,8 @@
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
       <c r="K25" s="51"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="76"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="80"/>
       <c r="N25" s="33"/>
       <c r="O25" s="32"/>
       <c r="P25" s="30"/>
@@ -2916,8 +2956,8 @@
       <c r="Y25" s="31"/>
       <c r="Z25" s="31"/>
       <c r="AA25" s="32"/>
-      <c r="AB25" s="80"/>
-      <c r="AC25" s="81"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="89"/>
       <c r="AD25" s="33"/>
       <c r="AE25" s="32"/>
       <c r="AF25" s="30"/>
@@ -2932,24 +2972,24 @@
       <c r="AO25" s="31"/>
       <c r="AP25" s="31"/>
       <c r="AQ25" s="32"/>
-      <c r="AR25" s="75"/>
-      <c r="AS25" s="76"/>
+      <c r="AR25" s="79"/>
+      <c r="AS25" s="80"/>
       <c r="AT25" s="33"/>
       <c r="AU25" s="32"/>
       <c r="AV25" s="30"/>
       <c r="AW25" s="31"/>
-      <c r="AX25" s="75"/>
-      <c r="AY25" s="76"/>
-      <c r="AZ25" s="106"/>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A26" s="94" t="s">
+      <c r="AX25" s="79"/>
+      <c r="AY25" s="80"/>
+      <c r="AZ25" s="66"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A26" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="96">
+      <c r="B26" s="61">
         <v>1.5</v>
       </c>
-      <c r="C26" s="97">
+      <c r="C26" s="68">
         <v>1</v>
       </c>
       <c r="D26" s="6"/>
@@ -2960,8 +3000,8 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="27"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="76"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="80"/>
       <c r="N26" s="11"/>
       <c r="O26" s="27"/>
       <c r="P26" s="6"/>
@@ -2976,8 +3016,8 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="27"/>
-      <c r="AB26" s="80"/>
-      <c r="AC26" s="81"/>
+      <c r="AB26" s="88"/>
+      <c r="AC26" s="89"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="6"/>
@@ -2992,21 +3032,21 @@
       <c r="AO26" s="7"/>
       <c r="AP26" s="7"/>
       <c r="AQ26" s="27"/>
-      <c r="AR26" s="75"/>
-      <c r="AS26" s="76"/>
+      <c r="AR26" s="79"/>
+      <c r="AS26" s="80"/>
       <c r="AT26" s="28"/>
       <c r="AU26" s="27"/>
       <c r="AV26" s="6"/>
       <c r="AW26" s="7"/>
-      <c r="AX26" s="75"/>
-      <c r="AY26" s="76"/>
-      <c r="AZ26" s="99" t="s">
+      <c r="AX26" s="79"/>
+      <c r="AY26" s="80"/>
+      <c r="AZ26" s="70" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A27" s="98"/>
-      <c r="B27" s="72"/>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A27" s="105"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="69"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
@@ -3016,8 +3056,8 @@
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="76"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="80"/>
       <c r="N27" s="55"/>
       <c r="O27" s="16"/>
       <c r="P27" s="14"/>
@@ -3032,8 +3072,8 @@
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
       <c r="AA27" s="16"/>
-      <c r="AB27" s="80"/>
-      <c r="AC27" s="81"/>
+      <c r="AB27" s="88"/>
+      <c r="AC27" s="89"/>
       <c r="AD27" s="17"/>
       <c r="AE27" s="16"/>
       <c r="AF27" s="14"/>
@@ -3048,21 +3088,21 @@
       <c r="AO27" s="15"/>
       <c r="AP27" s="15"/>
       <c r="AQ27" s="16"/>
-      <c r="AR27" s="75"/>
-      <c r="AS27" s="76"/>
+      <c r="AR27" s="79"/>
+      <c r="AS27" s="80"/>
       <c r="AT27" s="17"/>
       <c r="AU27" s="16"/>
       <c r="AV27" s="14"/>
       <c r="AW27" s="15"/>
-      <c r="AX27" s="75"/>
-      <c r="AY27" s="76"/>
-      <c r="AZ27" s="100"/>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
+      <c r="AX27" s="79"/>
+      <c r="AY27" s="80"/>
+      <c r="AZ27" s="71"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A28" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="72">
+      <c r="B28" s="67">
         <v>2.5</v>
       </c>
       <c r="C28" s="69">
@@ -3076,8 +3116,8 @@
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="76"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="80"/>
       <c r="N28" s="17"/>
       <c r="O28" s="35"/>
       <c r="P28" s="19"/>
@@ -3092,8 +3132,8 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="16"/>
-      <c r="AB28" s="80"/>
-      <c r="AC28" s="81"/>
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="89"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="16"/>
       <c r="AF28" s="14"/>
@@ -3108,19 +3148,19 @@
       <c r="AO28" s="15"/>
       <c r="AP28" s="15"/>
       <c r="AQ28" s="16"/>
-      <c r="AR28" s="75"/>
-      <c r="AS28" s="76"/>
+      <c r="AR28" s="79"/>
+      <c r="AS28" s="80"/>
       <c r="AT28" s="17"/>
       <c r="AU28" s="16"/>
       <c r="AV28" s="14"/>
       <c r="AW28" s="15"/>
-      <c r="AX28" s="75"/>
-      <c r="AY28" s="76"/>
-      <c r="AZ28" s="100"/>
-    </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="72"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="80"/>
+      <c r="AZ28" s="71"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A29" s="105"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="69"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
@@ -3130,8 +3170,8 @@
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="16"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="76"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="80"/>
       <c r="N29" s="55"/>
       <c r="O29" s="52"/>
       <c r="P29" s="14"/>
@@ -3146,8 +3186,8 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
       <c r="AA29" s="16"/>
-      <c r="AB29" s="80"/>
-      <c r="AC29" s="81"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="89"/>
       <c r="AD29" s="17"/>
       <c r="AE29" s="16"/>
       <c r="AF29" s="14"/>
@@ -3162,21 +3202,21 @@
       <c r="AO29" s="15"/>
       <c r="AP29" s="15"/>
       <c r="AQ29" s="16"/>
-      <c r="AR29" s="75"/>
-      <c r="AS29" s="76"/>
+      <c r="AR29" s="79"/>
+      <c r="AS29" s="80"/>
       <c r="AT29" s="17"/>
       <c r="AU29" s="16"/>
       <c r="AV29" s="14"/>
       <c r="AW29" s="15"/>
-      <c r="AX29" s="75"/>
-      <c r="AY29" s="76"/>
-      <c r="AZ29" s="100"/>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+      <c r="AX29" s="79"/>
+      <c r="AY29" s="80"/>
+      <c r="AZ29" s="71"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A30" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="67">
         <v>4.5</v>
       </c>
       <c r="C30" s="69">
@@ -3190,8 +3230,8 @@
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="16"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="76"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="80"/>
       <c r="N30" s="17"/>
       <c r="O30" s="16"/>
       <c r="P30" s="14"/>
@@ -3206,8 +3246,8 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
       <c r="AA30" s="16"/>
-      <c r="AB30" s="80"/>
-      <c r="AC30" s="81"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="89"/>
       <c r="AD30" s="17"/>
       <c r="AE30" s="16"/>
       <c r="AF30" s="14"/>
@@ -3222,19 +3262,19 @@
       <c r="AO30" s="15"/>
       <c r="AP30" s="15"/>
       <c r="AQ30" s="16"/>
-      <c r="AR30" s="75"/>
-      <c r="AS30" s="76"/>
+      <c r="AR30" s="79"/>
+      <c r="AS30" s="80"/>
       <c r="AT30" s="17"/>
       <c r="AU30" s="16"/>
       <c r="AV30" s="14"/>
       <c r="AW30" s="15"/>
-      <c r="AX30" s="75"/>
-      <c r="AY30" s="76"/>
-      <c r="AZ30" s="100"/>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="72"/>
+      <c r="AX30" s="79"/>
+      <c r="AY30" s="80"/>
+      <c r="AZ30" s="71"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A31" s="105"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="69"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
@@ -3244,8 +3284,8 @@
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="16"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="76"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="80"/>
       <c r="N31" s="17"/>
       <c r="O31" s="16"/>
       <c r="P31" s="49"/>
@@ -3260,8 +3300,8 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="80"/>
-      <c r="AC31" s="81"/>
+      <c r="AB31" s="88"/>
+      <c r="AC31" s="89"/>
       <c r="AD31" s="17"/>
       <c r="AE31" s="16"/>
       <c r="AF31" s="14"/>
@@ -3276,21 +3316,21 @@
       <c r="AO31" s="15"/>
       <c r="AP31" s="15"/>
       <c r="AQ31" s="16"/>
-      <c r="AR31" s="75"/>
-      <c r="AS31" s="76"/>
+      <c r="AR31" s="79"/>
+      <c r="AS31" s="80"/>
       <c r="AT31" s="17"/>
       <c r="AU31" s="16"/>
       <c r="AV31" s="14"/>
       <c r="AW31" s="15"/>
-      <c r="AX31" s="75"/>
-      <c r="AY31" s="76"/>
-      <c r="AZ31" s="100"/>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="s">
+      <c r="AX31" s="79"/>
+      <c r="AY31" s="80"/>
+      <c r="AZ31" s="71"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A32" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="72">
+      <c r="B32" s="67">
         <v>2.5</v>
       </c>
       <c r="C32" s="69">
@@ -3304,8 +3344,8 @@
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="76"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="80"/>
       <c r="N32" s="17"/>
       <c r="O32" s="16"/>
       <c r="P32" s="14"/>
@@ -3320,8 +3360,8 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
       <c r="AA32" s="16"/>
-      <c r="AB32" s="80"/>
-      <c r="AC32" s="81"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="89"/>
       <c r="AD32" s="17"/>
       <c r="AE32" s="16"/>
       <c r="AF32" s="14"/>
@@ -3336,19 +3376,19 @@
       <c r="AO32" s="15"/>
       <c r="AP32" s="15"/>
       <c r="AQ32" s="16"/>
-      <c r="AR32" s="75"/>
-      <c r="AS32" s="76"/>
+      <c r="AR32" s="79"/>
+      <c r="AS32" s="80"/>
       <c r="AT32" s="17"/>
       <c r="AU32" s="16"/>
       <c r="AV32" s="14"/>
       <c r="AW32" s="15"/>
-      <c r="AX32" s="75"/>
-      <c r="AY32" s="76"/>
-      <c r="AZ32" s="100"/>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="72"/>
+      <c r="AX32" s="79"/>
+      <c r="AY32" s="80"/>
+      <c r="AZ32" s="71"/>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A33" s="105"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="69"/>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
@@ -3358,8 +3398,8 @@
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="16"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="76"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="80"/>
       <c r="N33" s="17"/>
       <c r="O33" s="16"/>
       <c r="P33" s="14"/>
@@ -3374,8 +3414,8 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
       <c r="AA33" s="16"/>
-      <c r="AB33" s="80"/>
-      <c r="AC33" s="81"/>
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="89"/>
       <c r="AD33" s="17"/>
       <c r="AE33" s="16"/>
       <c r="AF33" s="14"/>
@@ -3390,21 +3430,21 @@
       <c r="AO33" s="15"/>
       <c r="AP33" s="15"/>
       <c r="AQ33" s="16"/>
-      <c r="AR33" s="75"/>
-      <c r="AS33" s="76"/>
+      <c r="AR33" s="79"/>
+      <c r="AS33" s="80"/>
       <c r="AT33" s="17"/>
       <c r="AU33" s="16"/>
       <c r="AV33" s="14"/>
       <c r="AW33" s="15"/>
-      <c r="AX33" s="75"/>
-      <c r="AY33" s="76"/>
-      <c r="AZ33" s="100"/>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A34" s="70" t="s">
+      <c r="AX33" s="79"/>
+      <c r="AY33" s="80"/>
+      <c r="AZ33" s="71"/>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A34" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="72">
+      <c r="B34" s="67">
         <v>1</v>
       </c>
       <c r="C34" s="69">
@@ -3418,8 +3458,8 @@
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="16"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="76"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="80"/>
       <c r="N34" s="17"/>
       <c r="O34" s="16"/>
       <c r="P34" s="14"/>
@@ -3434,8 +3474,8 @@
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
       <c r="AA34" s="16"/>
-      <c r="AB34" s="80"/>
-      <c r="AC34" s="81"/>
+      <c r="AB34" s="88"/>
+      <c r="AC34" s="89"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="16"/>
       <c r="AF34" s="14"/>
@@ -3450,19 +3490,19 @@
       <c r="AO34" s="15"/>
       <c r="AP34" s="15"/>
       <c r="AQ34" s="16"/>
-      <c r="AR34" s="75"/>
-      <c r="AS34" s="76"/>
+      <c r="AR34" s="79"/>
+      <c r="AS34" s="80"/>
       <c r="AT34" s="17"/>
       <c r="AU34" s="16"/>
       <c r="AV34" s="14"/>
       <c r="AW34" s="15"/>
-      <c r="AX34" s="75"/>
-      <c r="AY34" s="76"/>
-      <c r="AZ34" s="100"/>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="72"/>
+      <c r="AX34" s="79"/>
+      <c r="AY34" s="80"/>
+      <c r="AZ34" s="71"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A35" s="106"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="69"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
@@ -3472,8 +3512,8 @@
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="16"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="76"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="80"/>
       <c r="N35" s="17"/>
       <c r="O35" s="16"/>
       <c r="P35" s="14"/>
@@ -3488,8 +3528,8 @@
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
       <c r="AA35" s="16"/>
-      <c r="AB35" s="80"/>
-      <c r="AC35" s="81"/>
+      <c r="AB35" s="88"/>
+      <c r="AC35" s="89"/>
       <c r="AD35" s="17"/>
       <c r="AE35" s="16"/>
       <c r="AF35" s="14"/>
@@ -3504,21 +3544,21 @@
       <c r="AO35" s="15"/>
       <c r="AP35" s="15"/>
       <c r="AQ35" s="16"/>
-      <c r="AR35" s="75"/>
-      <c r="AS35" s="76"/>
+      <c r="AR35" s="79"/>
+      <c r="AS35" s="80"/>
       <c r="AT35" s="17"/>
       <c r="AU35" s="16"/>
       <c r="AV35" s="14"/>
       <c r="AW35" s="15"/>
-      <c r="AX35" s="75"/>
-      <c r="AY35" s="76"/>
-      <c r="AZ35" s="100"/>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A36" s="107" t="s">
+      <c r="AX35" s="79"/>
+      <c r="AY35" s="80"/>
+      <c r="AZ35" s="71"/>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A36" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="109">
+      <c r="B36" s="74">
         <v>4.5</v>
       </c>
       <c r="C36" s="69">
@@ -3532,8 +3572,8 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="16"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="76"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="80"/>
       <c r="N36" s="17"/>
       <c r="O36" s="16"/>
       <c r="P36" s="14"/>
@@ -3548,8 +3588,8 @@
       <c r="Y36" s="20"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="16"/>
-      <c r="AB36" s="80"/>
-      <c r="AC36" s="81"/>
+      <c r="AB36" s="88"/>
+      <c r="AC36" s="89"/>
       <c r="AD36" s="17"/>
       <c r="AE36" s="16"/>
       <c r="AF36" s="14"/>
@@ -3564,19 +3604,19 @@
       <c r="AO36" s="15"/>
       <c r="AP36" s="15"/>
       <c r="AQ36" s="16"/>
-      <c r="AR36" s="75"/>
-      <c r="AS36" s="76"/>
+      <c r="AR36" s="79"/>
+      <c r="AS36" s="80"/>
       <c r="AT36" s="17"/>
       <c r="AU36" s="16"/>
       <c r="AV36" s="14"/>
       <c r="AW36" s="15"/>
-      <c r="AX36" s="75"/>
-      <c r="AY36" s="76"/>
-      <c r="AZ36" s="100"/>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
-      <c r="B37" s="109"/>
+      <c r="AX36" s="79"/>
+      <c r="AY36" s="80"/>
+      <c r="AZ36" s="71"/>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A37" s="110"/>
+      <c r="B37" s="74"/>
       <c r="C37" s="69"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
@@ -3586,8 +3626,8 @@
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="16"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="76"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="80"/>
       <c r="N37" s="17"/>
       <c r="O37" s="16"/>
       <c r="P37" s="14"/>
@@ -3602,8 +3642,8 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
       <c r="AA37" s="16"/>
-      <c r="AB37" s="80"/>
-      <c r="AC37" s="81"/>
+      <c r="AB37" s="88"/>
+      <c r="AC37" s="89"/>
       <c r="AD37" s="17"/>
       <c r="AE37" s="16"/>
       <c r="AF37" s="14"/>
@@ -3618,21 +3658,21 @@
       <c r="AO37" s="15"/>
       <c r="AP37" s="15"/>
       <c r="AQ37" s="16"/>
-      <c r="AR37" s="75"/>
-      <c r="AS37" s="76"/>
+      <c r="AR37" s="79"/>
+      <c r="AS37" s="80"/>
       <c r="AT37" s="17"/>
       <c r="AU37" s="16"/>
       <c r="AV37" s="14"/>
       <c r="AW37" s="15"/>
-      <c r="AX37" s="75"/>
-      <c r="AY37" s="76"/>
-      <c r="AZ37" s="100"/>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A38" s="107" t="s">
+      <c r="AX37" s="79"/>
+      <c r="AY37" s="80"/>
+      <c r="AZ37" s="71"/>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A38" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="109">
+      <c r="B38" s="74">
         <v>2.5</v>
       </c>
       <c r="C38" s="69">
@@ -3646,8 +3686,8 @@
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="16"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="76"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="80"/>
       <c r="N38" s="17"/>
       <c r="O38" s="16"/>
       <c r="P38" s="14"/>
@@ -3662,8 +3702,8 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="29"/>
-      <c r="AB38" s="80"/>
-      <c r="AC38" s="81"/>
+      <c r="AB38" s="88"/>
+      <c r="AC38" s="89"/>
       <c r="AD38" s="17"/>
       <c r="AE38" s="16"/>
       <c r="AF38" s="14"/>
@@ -3678,19 +3718,19 @@
       <c r="AO38" s="15"/>
       <c r="AP38" s="15"/>
       <c r="AQ38" s="16"/>
-      <c r="AR38" s="75"/>
-      <c r="AS38" s="76"/>
+      <c r="AR38" s="79"/>
+      <c r="AS38" s="80"/>
       <c r="AT38" s="17"/>
       <c r="AU38" s="16"/>
       <c r="AV38" s="14"/>
       <c r="AW38" s="15"/>
-      <c r="AX38" s="75"/>
-      <c r="AY38" s="76"/>
-      <c r="AZ38" s="100"/>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
-      <c r="B39" s="109"/>
+      <c r="AX38" s="79"/>
+      <c r="AY38" s="80"/>
+      <c r="AZ38" s="71"/>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A39" s="110"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="69"/>
       <c r="D39" s="14"/>
       <c r="E39" s="15"/>
@@ -3700,8 +3740,8 @@
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="16"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="76"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="80"/>
       <c r="N39" s="17"/>
       <c r="O39" s="16"/>
       <c r="P39" s="14"/>
@@ -3716,8 +3756,8 @@
       <c r="Y39" s="50"/>
       <c r="Z39" s="50"/>
       <c r="AA39" s="16"/>
-      <c r="AB39" s="80"/>
-      <c r="AC39" s="81"/>
+      <c r="AB39" s="88"/>
+      <c r="AC39" s="89"/>
       <c r="AD39" s="17"/>
       <c r="AE39" s="16"/>
       <c r="AF39" s="14"/>
@@ -3732,21 +3772,21 @@
       <c r="AO39" s="15"/>
       <c r="AP39" s="15"/>
       <c r="AQ39" s="16"/>
-      <c r="AR39" s="75"/>
-      <c r="AS39" s="76"/>
+      <c r="AR39" s="79"/>
+      <c r="AS39" s="80"/>
       <c r="AT39" s="17"/>
       <c r="AU39" s="16"/>
       <c r="AV39" s="14"/>
       <c r="AW39" s="15"/>
-      <c r="AX39" s="75"/>
-      <c r="AY39" s="76"/>
-      <c r="AZ39" s="100"/>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A40" s="107" t="s">
+      <c r="AX39" s="79"/>
+      <c r="AY39" s="80"/>
+      <c r="AZ39" s="71"/>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A40" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="109">
+      <c r="B40" s="74">
         <v>1.5</v>
       </c>
       <c r="C40" s="69">
@@ -3760,8 +3800,8 @@
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="16"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="76"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="80"/>
       <c r="N40" s="17"/>
       <c r="O40" s="16"/>
       <c r="P40" s="14"/>
@@ -3776,8 +3816,8 @@
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
       <c r="AA40" s="16"/>
-      <c r="AB40" s="80"/>
-      <c r="AC40" s="81"/>
+      <c r="AB40" s="88"/>
+      <c r="AC40" s="89"/>
       <c r="AD40" s="36"/>
       <c r="AE40" s="16"/>
       <c r="AF40" s="14"/>
@@ -3792,19 +3832,19 @@
       <c r="AO40" s="15"/>
       <c r="AP40" s="15"/>
       <c r="AQ40" s="16"/>
-      <c r="AR40" s="75"/>
-      <c r="AS40" s="76"/>
+      <c r="AR40" s="79"/>
+      <c r="AS40" s="80"/>
       <c r="AT40" s="17"/>
       <c r="AU40" s="16"/>
       <c r="AV40" s="14"/>
       <c r="AW40" s="15"/>
-      <c r="AX40" s="75"/>
-      <c r="AY40" s="76"/>
-      <c r="AZ40" s="100"/>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
-      <c r="B41" s="72"/>
+      <c r="AX40" s="79"/>
+      <c r="AY40" s="80"/>
+      <c r="AZ40" s="71"/>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A41" s="110"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="69"/>
       <c r="D41" s="14"/>
       <c r="E41" s="15"/>
@@ -3814,8 +3854,8 @@
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
       <c r="K41" s="16"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="76"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="80"/>
       <c r="N41" s="17"/>
       <c r="O41" s="16"/>
       <c r="P41" s="14"/>
@@ -3830,8 +3870,8 @@
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
       <c r="AA41" s="52"/>
-      <c r="AB41" s="80"/>
-      <c r="AC41" s="81"/>
+      <c r="AB41" s="88"/>
+      <c r="AC41" s="89"/>
       <c r="AD41" s="17"/>
       <c r="AE41" s="16"/>
       <c r="AF41" s="14"/>
@@ -3846,21 +3886,21 @@
       <c r="AO41" s="15"/>
       <c r="AP41" s="15"/>
       <c r="AQ41" s="16"/>
-      <c r="AR41" s="75"/>
-      <c r="AS41" s="76"/>
+      <c r="AR41" s="79"/>
+      <c r="AS41" s="80"/>
       <c r="AT41" s="17"/>
       <c r="AU41" s="16"/>
       <c r="AV41" s="14"/>
       <c r="AW41" s="15"/>
-      <c r="AX41" s="75"/>
-      <c r="AY41" s="76"/>
-      <c r="AZ41" s="100"/>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A42" s="70" t="s">
+      <c r="AX41" s="79"/>
+      <c r="AY41" s="80"/>
+      <c r="AZ41" s="71"/>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A42" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="72">
+      <c r="B42" s="67">
         <v>4.5</v>
       </c>
       <c r="C42" s="69">
@@ -3874,8 +3914,8 @@
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
       <c r="K42" s="16"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="76"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="80"/>
       <c r="N42" s="17"/>
       <c r="O42" s="16"/>
       <c r="P42" s="14"/>
@@ -3890,8 +3930,8 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
       <c r="AA42" s="16"/>
-      <c r="AB42" s="80"/>
-      <c r="AC42" s="81"/>
+      <c r="AB42" s="88"/>
+      <c r="AC42" s="89"/>
       <c r="AD42" s="17"/>
       <c r="AE42" s="16"/>
       <c r="AF42" s="19"/>
@@ -3906,19 +3946,19 @@
       <c r="AO42" s="15"/>
       <c r="AP42" s="15"/>
       <c r="AQ42" s="16"/>
-      <c r="AR42" s="75"/>
-      <c r="AS42" s="76"/>
+      <c r="AR42" s="79"/>
+      <c r="AS42" s="80"/>
       <c r="AT42" s="17"/>
       <c r="AU42" s="16"/>
       <c r="AV42" s="14"/>
       <c r="AW42" s="15"/>
-      <c r="AX42" s="75"/>
-      <c r="AY42" s="76"/>
-      <c r="AZ42" s="100"/>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
-      <c r="B43" s="72"/>
+      <c r="AX42" s="79"/>
+      <c r="AY42" s="80"/>
+      <c r="AZ42" s="71"/>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A43" s="105"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="69"/>
       <c r="D43" s="14"/>
       <c r="E43" s="15"/>
@@ -3928,8 +3968,8 @@
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
       <c r="K43" s="16"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="76"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="80"/>
       <c r="N43" s="17"/>
       <c r="O43" s="16"/>
       <c r="P43" s="14"/>
@@ -3944,8 +3984,8 @@
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
       <c r="AA43" s="16"/>
-      <c r="AB43" s="80"/>
-      <c r="AC43" s="81"/>
+      <c r="AB43" s="88"/>
+      <c r="AC43" s="89"/>
       <c r="AD43" s="55"/>
       <c r="AE43" s="52"/>
       <c r="AF43" s="14"/>
@@ -3960,21 +4000,21 @@
       <c r="AO43" s="15"/>
       <c r="AP43" s="15"/>
       <c r="AQ43" s="16"/>
-      <c r="AR43" s="75"/>
-      <c r="AS43" s="76"/>
+      <c r="AR43" s="79"/>
+      <c r="AS43" s="80"/>
       <c r="AT43" s="17"/>
       <c r="AU43" s="16"/>
       <c r="AV43" s="14"/>
       <c r="AW43" s="15"/>
-      <c r="AX43" s="75"/>
-      <c r="AY43" s="76"/>
-      <c r="AZ43" s="100"/>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A44" s="70" t="s">
+      <c r="AX43" s="79"/>
+      <c r="AY43" s="80"/>
+      <c r="AZ43" s="71"/>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A44" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="72">
+      <c r="B44" s="67">
         <v>4.5</v>
       </c>
       <c r="C44" s="69">
@@ -3988,8 +4028,8 @@
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
       <c r="K44" s="16"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="76"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="80"/>
       <c r="N44" s="17"/>
       <c r="O44" s="16"/>
       <c r="P44" s="14"/>
@@ -4004,8 +4044,8 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
       <c r="AA44" s="16"/>
-      <c r="AB44" s="80"/>
-      <c r="AC44" s="81"/>
+      <c r="AB44" s="88"/>
+      <c r="AC44" s="89"/>
       <c r="AD44" s="17"/>
       <c r="AE44" s="16"/>
       <c r="AF44" s="14"/>
@@ -4020,19 +4060,19 @@
       <c r="AO44" s="15"/>
       <c r="AP44" s="15"/>
       <c r="AQ44" s="16"/>
-      <c r="AR44" s="75"/>
-      <c r="AS44" s="76"/>
+      <c r="AR44" s="79"/>
+      <c r="AS44" s="80"/>
       <c r="AT44" s="17"/>
       <c r="AU44" s="16"/>
       <c r="AV44" s="14"/>
       <c r="AW44" s="15"/>
-      <c r="AX44" s="75"/>
-      <c r="AY44" s="76"/>
-      <c r="AZ44" s="100"/>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="72"/>
+      <c r="AX44" s="79"/>
+      <c r="AY44" s="80"/>
+      <c r="AZ44" s="71"/>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A45" s="105"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="69"/>
       <c r="D45" s="14"/>
       <c r="E45" s="15"/>
@@ -4042,8 +4082,8 @@
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
       <c r="K45" s="16"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="76"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="80"/>
       <c r="N45" s="17"/>
       <c r="O45" s="16"/>
       <c r="P45" s="14"/>
@@ -4058,8 +4098,8 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="16"/>
-      <c r="AB45" s="80"/>
-      <c r="AC45" s="81"/>
+      <c r="AB45" s="88"/>
+      <c r="AC45" s="89"/>
       <c r="AD45" s="17"/>
       <c r="AE45" s="16"/>
       <c r="AF45" s="49"/>
@@ -4074,21 +4114,21 @@
       <c r="AO45" s="15"/>
       <c r="AP45" s="15"/>
       <c r="AQ45" s="16"/>
-      <c r="AR45" s="75"/>
-      <c r="AS45" s="76"/>
+      <c r="AR45" s="79"/>
+      <c r="AS45" s="80"/>
       <c r="AT45" s="17"/>
       <c r="AU45" s="16"/>
       <c r="AV45" s="14"/>
       <c r="AW45" s="15"/>
-      <c r="AX45" s="75"/>
-      <c r="AY45" s="76"/>
-      <c r="AZ45" s="100"/>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A46" s="70" t="s">
+      <c r="AX45" s="79"/>
+      <c r="AY45" s="80"/>
+      <c r="AZ45" s="71"/>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A46" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="72">
+      <c r="B46" s="67">
         <v>1.5</v>
       </c>
       <c r="C46" s="69">
@@ -4102,8 +4142,8 @@
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
       <c r="K46" s="16"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="76"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="80"/>
       <c r="N46" s="17"/>
       <c r="O46" s="16"/>
       <c r="P46" s="14"/>
@@ -4118,8 +4158,8 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
       <c r="AA46" s="16"/>
-      <c r="AB46" s="80"/>
-      <c r="AC46" s="81"/>
+      <c r="AB46" s="88"/>
+      <c r="AC46" s="89"/>
       <c r="AD46" s="17"/>
       <c r="AE46" s="16"/>
       <c r="AF46" s="14"/>
@@ -4134,20 +4174,20 @@
       <c r="AO46" s="15"/>
       <c r="AP46" s="15"/>
       <c r="AQ46" s="16"/>
-      <c r="AR46" s="75"/>
-      <c r="AS46" s="76"/>
+      <c r="AR46" s="79"/>
+      <c r="AS46" s="80"/>
       <c r="AT46" s="17"/>
       <c r="AU46" s="16"/>
       <c r="AV46" s="14"/>
       <c r="AW46" s="15"/>
-      <c r="AX46" s="75"/>
-      <c r="AY46" s="76"/>
-      <c r="AZ46" s="100"/>
-    </row>
-    <row r="47" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="91"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="93"/>
+      <c r="AX46" s="79"/>
+      <c r="AY46" s="80"/>
+      <c r="AZ46" s="71"/>
+    </row>
+    <row r="47" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="108"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="73"/>
       <c r="D47" s="30"/>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
@@ -4156,8 +4196,8 @@
       <c r="I47" s="31"/>
       <c r="J47" s="31"/>
       <c r="K47" s="32"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="76"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="80"/>
       <c r="N47" s="33"/>
       <c r="O47" s="32"/>
       <c r="P47" s="30"/>
@@ -4172,8 +4212,8 @@
       <c r="Y47" s="31"/>
       <c r="Z47" s="31"/>
       <c r="AA47" s="32"/>
-      <c r="AB47" s="80"/>
-      <c r="AC47" s="81"/>
+      <c r="AB47" s="88"/>
+      <c r="AC47" s="89"/>
       <c r="AD47" s="33"/>
       <c r="AE47" s="32"/>
       <c r="AF47" s="30"/>
@@ -4188,24 +4228,24 @@
       <c r="AO47" s="31"/>
       <c r="AP47" s="31"/>
       <c r="AQ47" s="32"/>
-      <c r="AR47" s="75"/>
-      <c r="AS47" s="76"/>
+      <c r="AR47" s="79"/>
+      <c r="AS47" s="80"/>
       <c r="AT47" s="33"/>
       <c r="AU47" s="32"/>
       <c r="AV47" s="30"/>
       <c r="AW47" s="31"/>
-      <c r="AX47" s="75"/>
-      <c r="AY47" s="76"/>
-      <c r="AZ47" s="101"/>
-    </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A48" s="94" t="s">
+      <c r="AX47" s="79"/>
+      <c r="AY47" s="80"/>
+      <c r="AZ47" s="72"/>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A48" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="96">
+      <c r="B48" s="61">
         <v>1.5</v>
       </c>
-      <c r="C48" s="97">
+      <c r="C48" s="68">
         <v>1</v>
       </c>
       <c r="D48" s="6"/>
@@ -4216,8 +4256,8 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="27"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="76"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="80"/>
       <c r="N48" s="28"/>
       <c r="O48" s="27"/>
       <c r="P48" s="6"/>
@@ -4232,8 +4272,8 @@
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="27"/>
-      <c r="AB48" s="80"/>
-      <c r="AC48" s="81"/>
+      <c r="AB48" s="88"/>
+      <c r="AC48" s="89"/>
       <c r="AD48" s="28"/>
       <c r="AE48" s="27"/>
       <c r="AF48" s="6"/>
@@ -4248,21 +4288,21 @@
       <c r="AO48" s="7"/>
       <c r="AP48" s="7"/>
       <c r="AQ48" s="27"/>
-      <c r="AR48" s="75"/>
-      <c r="AS48" s="76"/>
+      <c r="AR48" s="79"/>
+      <c r="AS48" s="80"/>
       <c r="AT48" s="28"/>
       <c r="AU48" s="27"/>
       <c r="AV48" s="6"/>
       <c r="AW48" s="7"/>
-      <c r="AX48" s="75"/>
-      <c r="AY48" s="76"/>
-      <c r="AZ48" s="99" t="s">
+      <c r="AX48" s="79"/>
+      <c r="AY48" s="80"/>
+      <c r="AZ48" s="70" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A49" s="98"/>
-      <c r="B49" s="72"/>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A49" s="105"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="69"/>
       <c r="D49" s="14"/>
       <c r="E49" s="15"/>
@@ -4272,8 +4312,8 @@
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
       <c r="K49" s="16"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="76"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="80"/>
       <c r="N49" s="17"/>
       <c r="O49" s="16"/>
       <c r="P49" s="14"/>
@@ -4288,8 +4328,8 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
       <c r="AA49" s="16"/>
-      <c r="AB49" s="80"/>
-      <c r="AC49" s="81"/>
+      <c r="AB49" s="88"/>
+      <c r="AC49" s="89"/>
       <c r="AD49" s="17"/>
       <c r="AE49" s="16"/>
       <c r="AF49" s="14"/>
@@ -4304,21 +4344,21 @@
       <c r="AO49" s="15"/>
       <c r="AP49" s="15"/>
       <c r="AQ49" s="16"/>
-      <c r="AR49" s="75"/>
-      <c r="AS49" s="76"/>
+      <c r="AR49" s="79"/>
+      <c r="AS49" s="80"/>
       <c r="AT49" s="17"/>
       <c r="AU49" s="16"/>
       <c r="AV49" s="14"/>
       <c r="AW49" s="15"/>
-      <c r="AX49" s="75"/>
-      <c r="AY49" s="76"/>
-      <c r="AZ49" s="100"/>
-    </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A50" s="70" t="s">
+      <c r="AX49" s="79"/>
+      <c r="AY49" s="80"/>
+      <c r="AZ49" s="71"/>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A50" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="72">
+      <c r="B50" s="67">
         <v>4.5</v>
       </c>
       <c r="C50" s="69">
@@ -4332,8 +4372,8 @@
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="16"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="76"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="80"/>
       <c r="N50" s="17"/>
       <c r="O50" s="16"/>
       <c r="P50" s="14"/>
@@ -4348,8 +4388,8 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
       <c r="AA50" s="16"/>
-      <c r="AB50" s="80"/>
-      <c r="AC50" s="81"/>
+      <c r="AB50" s="88"/>
+      <c r="AC50" s="89"/>
       <c r="AD50" s="17"/>
       <c r="AE50" s="16"/>
       <c r="AF50" s="14"/>
@@ -4364,20 +4404,20 @@
       <c r="AO50" s="20"/>
       <c r="AP50" s="20"/>
       <c r="AQ50" s="29"/>
-      <c r="AR50" s="75"/>
-      <c r="AS50" s="76"/>
+      <c r="AR50" s="79"/>
+      <c r="AS50" s="80"/>
       <c r="AT50" s="17"/>
       <c r="AU50" s="16"/>
       <c r="AV50" s="14"/>
       <c r="AW50" s="15"/>
-      <c r="AX50" s="75"/>
-      <c r="AY50" s="76"/>
-      <c r="AZ50" s="100"/>
-    </row>
-    <row r="51" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="91"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
+      <c r="AX50" s="79"/>
+      <c r="AY50" s="80"/>
+      <c r="AZ50" s="71"/>
+    </row>
+    <row r="51" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="108"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="73"/>
       <c r="D51" s="30"/>
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
@@ -4386,8 +4426,8 @@
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
       <c r="K51" s="32"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="76"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="80"/>
       <c r="N51" s="33"/>
       <c r="O51" s="32"/>
       <c r="P51" s="30"/>
@@ -4402,8 +4442,8 @@
       <c r="Y51" s="31"/>
       <c r="Z51" s="31"/>
       <c r="AA51" s="32"/>
-      <c r="AB51" s="80"/>
-      <c r="AC51" s="81"/>
+      <c r="AB51" s="88"/>
+      <c r="AC51" s="89"/>
       <c r="AD51" s="33"/>
       <c r="AE51" s="32"/>
       <c r="AF51" s="30"/>
@@ -4418,24 +4458,24 @@
       <c r="AO51" s="54"/>
       <c r="AP51" s="54"/>
       <c r="AQ51" s="51"/>
-      <c r="AR51" s="75"/>
-      <c r="AS51" s="76"/>
+      <c r="AR51" s="79"/>
+      <c r="AS51" s="80"/>
       <c r="AT51" s="33"/>
       <c r="AU51" s="32"/>
       <c r="AV51" s="30"/>
       <c r="AW51" s="31"/>
-      <c r="AX51" s="75"/>
-      <c r="AY51" s="76"/>
-      <c r="AZ51" s="101"/>
-    </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A52" s="94" t="s">
+      <c r="AX51" s="79"/>
+      <c r="AY51" s="80"/>
+      <c r="AZ51" s="72"/>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A52" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="96">
+      <c r="B52" s="61">
         <v>2.5</v>
       </c>
-      <c r="C52" s="110">
+      <c r="C52" s="63">
         <v>2</v>
       </c>
       <c r="D52" s="38"/>
@@ -4446,8 +4486,8 @@
       <c r="I52" s="39"/>
       <c r="J52" s="39"/>
       <c r="K52" s="40"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="76"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="80"/>
       <c r="N52" s="41"/>
       <c r="O52" s="40"/>
       <c r="P52" s="38"/>
@@ -4462,8 +4502,8 @@
       <c r="Y52" s="39"/>
       <c r="Z52" s="39"/>
       <c r="AA52" s="40"/>
-      <c r="AB52" s="80"/>
-      <c r="AC52" s="81"/>
+      <c r="AB52" s="88"/>
+      <c r="AC52" s="89"/>
       <c r="AD52" s="41"/>
       <c r="AE52" s="40"/>
       <c r="AF52" s="38"/>
@@ -4478,22 +4518,22 @@
       <c r="AO52" s="39"/>
       <c r="AP52" s="39"/>
       <c r="AQ52" s="40"/>
-      <c r="AR52" s="75"/>
-      <c r="AS52" s="76"/>
+      <c r="AR52" s="79"/>
+      <c r="AS52" s="80"/>
       <c r="AT52" s="42"/>
       <c r="AU52" s="43"/>
       <c r="AV52" s="38"/>
       <c r="AW52" s="39"/>
-      <c r="AX52" s="75"/>
-      <c r="AY52" s="76"/>
-      <c r="AZ52" s="105" t="s">
+      <c r="AX52" s="79"/>
+      <c r="AY52" s="80"/>
+      <c r="AZ52" s="65" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="95"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="111"/>
+    <row r="53" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="108"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="30"/>
       <c r="E53" s="31"/>
       <c r="F53" s="31"/>
@@ -4502,8 +4542,8 @@
       <c r="I53" s="31"/>
       <c r="J53" s="31"/>
       <c r="K53" s="32"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="78"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="82"/>
       <c r="N53" s="33"/>
       <c r="O53" s="32"/>
       <c r="P53" s="30"/>
@@ -4518,8 +4558,8 @@
       <c r="Y53" s="31"/>
       <c r="Z53" s="31"/>
       <c r="AA53" s="32"/>
-      <c r="AB53" s="82"/>
-      <c r="AC53" s="83"/>
+      <c r="AB53" s="90"/>
+      <c r="AC53" s="91"/>
       <c r="AD53" s="33"/>
       <c r="AE53" s="32"/>
       <c r="AF53" s="30"/>
@@ -4534,17 +4574,17 @@
       <c r="AO53" s="31"/>
       <c r="AP53" s="31"/>
       <c r="AQ53" s="32"/>
-      <c r="AR53" s="77"/>
-      <c r="AS53" s="78"/>
-      <c r="AT53" s="112"/>
+      <c r="AR53" s="81"/>
+      <c r="AS53" s="82"/>
+      <c r="AT53" s="60"/>
       <c r="AU53" s="51"/>
       <c r="AV53" s="30"/>
       <c r="AW53" s="31"/>
-      <c r="AX53" s="77"/>
-      <c r="AY53" s="78"/>
-      <c r="AZ53" s="106"/>
-    </row>
-    <row r="54" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AX53" s="81"/>
+      <c r="AY53" s="82"/>
+      <c r="AZ53" s="66"/>
+    </row>
+    <row r="54" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="44" t="s">
         <v>42</v>
       </c>
@@ -4606,30 +4646,77 @@
       <c r="AY54" s="47"/>
       <c r="AZ54" s="48"/>
     </row>
-    <row r="55" spans="1:52" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:52" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="AZ52:AZ53"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="AZ48:AZ51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AZ1:AZ3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L4:M53"/>
+    <mergeCell ref="AB4:AC53"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="AZ16:AZ23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="AZ12:AZ15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="AR4:AS53"/>
+    <mergeCell ref="AX4:AY53"/>
+    <mergeCell ref="AZ4:AZ11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="AZ24:AZ25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
@@ -4654,76 +4741,29 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="AZ16:AZ23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="AZ12:AZ15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="AR4:AS53"/>
-    <mergeCell ref="AX4:AY53"/>
-    <mergeCell ref="AZ4:AZ11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L4:M53"/>
-    <mergeCell ref="AB4:AC53"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AZ1:AZ3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="AZ52:AZ53"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="AZ48:AZ51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="61" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="59" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>